--- a/webScrapping/espn_scrapper/IPL/Mumbai Indians/Suryakumar Yadav.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Mumbai Indians/Suryakumar Yadav.xlsx
@@ -439,317 +439,317 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Sep 19 2020</v>
+        <v xml:space="preserve"> Nov 3 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 5 wickets (with 4 balls remaining)</v>
+        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F2" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G2" t="str">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H2" t="str">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I2" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="str">
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>106.25</v>
+        <v>124.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 25 2020</v>
+        <v xml:space="preserve"> Oct 18 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>Royals won by 8 wickets (with 10 balls remaining)</v>
+        <v>Match tied (Kings XI won the one-over eliminator)</v>
       </c>
       <c r="D3" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F3" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G3" t="str">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H3" t="str">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I3" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>153.84</v>
+        <v>0.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Nov 3 2020</v>
+        <v xml:space="preserve"> Nov 5 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
+        <v>Mumbai won by 57 runs</v>
       </c>
       <c r="D4" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="F4" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G4" t="str">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H4" t="str">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I4" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="str">
-        <v>124.13</v>
+        <v>134.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Nov 5 2020</v>
+        <v xml:space="preserve"> Oct 25 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C5" t="str">
-        <v>Mumbai won by 57 runs</v>
+        <v>Royals won by 8 wickets (with 10 balls remaining)</v>
       </c>
       <c r="D5" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F5" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G5" t="str">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H5" t="str">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I5" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="str">
-        <v>134.21</v>
+        <v>153.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Oct 18 2020</v>
+        <v xml:space="preserve"> Sep 23 2020</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C6" t="str">
-        <v>Match tied (Kings XI won the one-over eliminator)</v>
+        <v>Mumbai won by 49 runs</v>
       </c>
       <c r="D6" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E6" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="F6" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G6" t="str">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H6" t="str">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I6" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="str">
-        <v>0.00</v>
+        <v>167.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v xml:space="preserve"> Sep 23 2020</v>
+        <v xml:space="preserve"> Oct 1 2020</v>
       </c>
       <c r="B7" t="str">
         <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C7" t="str">
-        <v>Mumbai won by 49 runs</v>
+        <v>Mumbai won by 48 runs</v>
       </c>
       <c r="D7" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E7" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F7" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G7" t="str">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H7" t="str">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I7" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v>167.85</v>
+        <v>142.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve"> Oct 4 2020</v>
+        <v xml:space="preserve"> Sep 19 2020</v>
       </c>
       <c r="B8" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C8" t="str">
-        <v>Mumbai won by 34 runs</v>
+        <v>Super Kings won by 5 wickets (with 4 balls remaining)</v>
       </c>
       <c r="D8" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E8" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F8" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G8" t="str">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H8" t="str">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J8" t="str">
         <v>0</v>
       </c>
       <c r="K8" t="str">
-        <v>150.00</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> Oct 1 2020</v>
+        <v xml:space="preserve"> Oct 6 2020</v>
       </c>
       <c r="B9" t="str">
         <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C9" t="str">
-        <v>Mumbai won by 48 runs</v>
+        <v>Mumbai won by 57 runs</v>
       </c>
       <c r="D9" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E9" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F9" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G9" t="str">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="H9" t="str">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I9" t="str">
+        <v>11</v>
+      </c>
+      <c r="J9" t="str">
         <v>2</v>
       </c>
-      <c r="J9" t="str">
-        <v>0</v>
-      </c>
       <c r="K9" t="str">
-        <v>142.85</v>
+        <v>168.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v xml:space="preserve"> Oct 6 2020</v>
+        <v xml:space="preserve"> Oct 4 2020</v>
       </c>
       <c r="B10" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C10" t="str">
-        <v>Mumbai won by 57 runs</v>
+        <v>Mumbai won by 34 runs</v>
       </c>
       <c r="D10" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E10" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F10" t="str">
         <v>Suryakumar Yadav</v>
       </c>
       <c r="G10" t="str">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="H10" t="str">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I10" t="str">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J10" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="str">
-        <v>168.08</v>
+        <v>150.00</v>
       </c>
     </row>
   </sheetData>
